--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="5" r:id="rId1"/>
@@ -203,39 +203,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>yyyyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllPosition.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProdlines.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getIndicatorsByProdId.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getShowType.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchTrendByCondition.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posIdString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>prodlineId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>indicatorId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>posIdString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyyMMdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllPosition.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getProdlines.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getIndicatorsByProdId.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getShowType.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchTByCondition.action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,11 +837,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84025344"/>
-        <c:axId val="84026880"/>
+        <c:axId val="55986816"/>
+        <c:axId val="71422336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84025344"/>
+        <c:axId val="55986816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,14 +850,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84026880"/>
+        <c:crossAx val="71422336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84026880"/>
+        <c:axId val="71422336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,13 +866,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84025344"/>
+        <c:crossAx val="55986816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -883,7 +884,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1229,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1445,7 +1446,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1468,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1476,7 +1477,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -1485,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1493,7 +1494,7 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -1502,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1513,7 +1514,7 @@
         <v>prodlineId</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -1531,7 +1532,7 @@
         <v>dateGranValue</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -1556,7 +1557,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1566,7 +1567,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="5" r:id="rId1"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>showType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dateGranValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,10 @@
   </si>
   <si>
     <t>indicatorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,11 +837,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55986816"/>
-        <c:axId val="71422336"/>
+        <c:axId val="85467136"/>
+        <c:axId val="85468672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55986816"/>
+        <c:axId val="85467136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,14 +850,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71422336"/>
+        <c:crossAx val="85468672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71422336"/>
+        <c:axId val="85468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,14 +866,13 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55986816"/>
+        <c:crossAx val="85467136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -884,7 +883,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1230,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1356,7 +1355,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1364,7 +1363,7 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1437,7 +1436,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1446,7 +1445,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1454,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
@@ -1469,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1477,7 +1476,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -1486,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1494,7 +1493,7 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -1503,25 +1502,25 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="17" t="str">
-        <f t="shared" ref="E13" si="0">$B12</f>
-        <v>prodlineId</v>
+        <f>$B10&amp;" "&amp;$B12</f>
+        <v>dateGranValue prodlineId</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
@@ -1532,7 +1531,7 @@
         <v>dateGranValue</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -1567,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="5" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,22 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2011/3/29</t>
-  </si>
-  <si>
-    <t>2011/3/30</t>
-  </si>
-  <si>
-    <t>2011/4/01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011/4/02</t>
-  </si>
-  <si>
-    <t>2011/4/03</t>
-  </si>
-  <si>
     <t>选择日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +220,10 @@
   </si>
   <si>
     <t>showFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_input!$B$4</c:f>
+              <c:f>_input!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,64 +772,34 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$A$5:$A$10</c:f>
+              <c:f>_input!$B$4:$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2011/3/28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011/3/29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2011/3/30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2011/4/01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2011/4/02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011/4/03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_input!$B$5:$B$10</c:f>
+              <c:f>_input!$B$5:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3344110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3544111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3444111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3344111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3744111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4444111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85467136"/>
-        <c:axId val="85468672"/>
+        <c:axId val="80617856"/>
+        <c:axId val="80619392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85467136"/>
+        <c:axId val="80617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,14 +808,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85468672"/>
+        <c:crossAx val="80619392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85468672"/>
+        <c:axId val="80619392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,13 +824,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85467136"/>
+        <c:crossAx val="80617856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -883,7 +842,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000633" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000633" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000666" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000666" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -894,13 +853,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>76198</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1227,9 +1186,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O24"/>
+  <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1314,29 +1273,32 @@
     <row r="16" spans="2:15">
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="15:15">
+    <row r="17" spans="15:19">
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="15:15">
+    <row r="18" spans="15:19">
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="15:15">
+    <row r="19" spans="15:19">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="15:15">
+    <row r="20" spans="15:19">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="15:15">
+    <row r="21" spans="15:19">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="15:15">
+    <row r="22" spans="15:19">
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="15:15">
+    <row r="23" spans="15:19">
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="15:15">
+    <row r="24" spans="15:19">
       <c r="O24" s="5"/>
+      <c r="S24" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1355,7 +1317,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1373,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1410,33 +1372,33 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -1445,15 +1407,15 @@
       <c r="E9" s="17"/>
       <c r="F9" s="16"/>
       <c r="G9" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
@@ -1468,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
@@ -1476,7 +1438,7 @@
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -1485,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -1493,16 +1455,16 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="27">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1513,14 +1475,14 @@
         <v>dateGranValue prodlineId</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
@@ -1531,7 +1493,7 @@
         <v>dateGranValue</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -1554,7 +1516,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
@@ -1577,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
+    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1589,56 +1551,16 @@
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>3344110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3544111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3444111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3344111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3744111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4444111</v>
       </c>
     </row>
   </sheetData>

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}{1}{2}报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downloadFileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +570,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -795,11 +806,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80617856"/>
-        <c:axId val="80619392"/>
+        <c:axId val="70797952"/>
+        <c:axId val="81449344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80617856"/>
+        <c:axId val="70797952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,14 +819,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80619392"/>
+        <c:crossAx val="81449344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80619392"/>
+        <c:axId val="81449344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +835,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80617856"/>
+        <c:crossAx val="70797952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,7 +853,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000666" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000666" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -884,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A8:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A8:G15"/>
   <tableColumns count="7">
     <tableColumn id="1" name="参数" dataDxfId="6"/>
     <tableColumn id="2" name="名称" dataDxfId="5"/>
@@ -1217,13 +1228,13 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="25" t="str">
         <f>_input!$B2&amp;_input!$B3&amp;"趋势图"</f>
         <v>搜索+推广点击消费趋势图</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15">
@@ -1315,19 +1326,19 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1">
@@ -1496,6 +1507,22 @@
         <v>36</v>
       </c>
       <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="18" t="str">
+        <f>$B12&amp;" "&amp;$B13&amp;" "&amp;$B14</f>
+        <v>prodlineId indicatorId showFlag</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
@@ -12,7 +12,7 @@
     <sheet name="_input" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="trendChartDataSource" localSheetId="2">OFFSET(_input!$A4,0,0,COUNTA(_input!$A:$A)-3, COUNTA(_input!$4:$4))</definedName>
+    <definedName name="trendChartDataSource" localSheetId="2">OFFSET(_input!$A5,0,0,COUNTA(_input!$A:$A)-4, COUNTA(_input!$5:$5))</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>downloadFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据粒度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +780,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_input!$A$5</c:f>
+              <c:f>_input!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -783,7 +791,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$B$4:$B$4</c:f>
+              <c:f>_input!$B$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -794,7 +802,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_input!$B$5:$B$5</c:f>
+              <c:f>_input!$B$6:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -806,11 +814,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70797952"/>
-        <c:axId val="81449344"/>
+        <c:axId val="81403904"/>
+        <c:axId val="81405440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70797952"/>
+        <c:axId val="81403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,14 +827,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81449344"/>
+        <c:crossAx val="81405440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81449344"/>
+        <c:axId val="81405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +843,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70797952"/>
+        <c:crossAx val="81403904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -853,7 +861,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1229,8 +1237,8 @@
     </row>
     <row r="2" spans="2:15">
       <c r="B2" s="25" t="str">
-        <f>_input!$B2&amp;_input!$B3&amp;"趋势图"</f>
-        <v>搜索+推广点击消费趋势图</v>
+        <f>_input!$B2&amp;_input!$B3&amp;_input!$B4&amp;"报表"</f>
+        <v>搜索+推广点击消费按月查看报表</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1543,7 +1551,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1574,19 +1582,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" thickBot="1">
+    <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>3344110</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}{1}{2}报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -485,17 +481,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6"/>
-      </right>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -506,7 +491,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,9 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -663,7 +645,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -676,8 +659,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -814,11 +795,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81403904"/>
-        <c:axId val="81405440"/>
+        <c:axId val="98640256"/>
+        <c:axId val="98641792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81403904"/>
+        <c:axId val="98640256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,14 +808,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81405440"/>
+        <c:crossAx val="98641792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81405440"/>
+        <c:axId val="98641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +824,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81403904"/>
+        <c:crossAx val="98640256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -861,7 +842,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1236,20 +1217,20 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="24" t="str">
         <f>_input!$B2&amp;_input!$B3&amp;_input!$B4&amp;"报表"</f>
         <v>搜索+推广点击消费按月查看报表</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:15">
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="22" t="str">
         <f>_input!$B3</f>
         <v>点击消费</v>
       </c>
@@ -1342,23 +1323,23 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1519,29 +1500,24 @@
     <row r="15" spans="1:7">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>trend!$B2</f>
+        <v>搜索+推广点击消费按月查看报表</v>
+      </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="18" t="str">
-        <f>$B12&amp;" "&amp;$B13&amp;" "&amp;$B14</f>
-        <v>prodlineId indicatorId showFlag</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://localhost:8080/rill-analysis-report/web/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1584,10 +1560,10 @@
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" thickBot="1">

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>按月查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,11 +799,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98640256"/>
-        <c:axId val="98641792"/>
+        <c:axId val="85991424"/>
+        <c:axId val="85992960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98640256"/>
+        <c:axId val="85991424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,14 +812,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98641792"/>
+        <c:crossAx val="85992960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98641792"/>
+        <c:axId val="85992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +828,7 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98640256"/>
+        <c:crossAx val="85991424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,7 +846,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1317,7 +1321,9 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1480,7 +1486,9 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" s="14" t="s">
         <v>41</v>
       </c>

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -505,9 +505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,7 +789,7 @@
             <c:numRef>
               <c:f>_input!$B$6:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3344110</c:v>
@@ -799,11 +799,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85991424"/>
-        <c:axId val="85992960"/>
+        <c:axId val="86253952"/>
+        <c:axId val="86255488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85991424"/>
+        <c:axId val="86253952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,23 +812,23 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85992960"/>
+        <c:crossAx val="86255488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85992960"/>
+        <c:axId val="86255488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85991424"/>
+        <c:crossAx val="86253952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -846,7 +846,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000777" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000777" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1218,88 +1218,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="3.75" customHeight="1">
-      <c r="O1" s="5"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="23" t="str">
         <f>_input!$B2&amp;_input!$B3&amp;_input!$B4&amp;"报表"</f>
         <v>搜索+推广点击消费按月查看报表</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="O2" s="5"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="21" t="str">
         <f>_input!$B3</f>
         <v>点击消费</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" ht="3" customHeight="1">
-      <c r="O5" s="5"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="O7" s="5"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="O9" s="5"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="O12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="O13" s="5"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="O14" s="5"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="O15" s="5"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="15:19">
-      <c r="O17" s="5"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="15:19">
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="15:19">
-      <c r="O19" s="5"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="15:19">
-      <c r="O20" s="5"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="15:19">
-      <c r="O21" s="5"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="15:19">
-      <c r="O22" s="5"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="15:19">
-      <c r="O23" s="5"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="15:19">
-      <c r="O24" s="5"/>
+      <c r="O24" s="4"/>
       <c r="S24" t="s">
         <v>42</v>
       </c>
@@ -1345,62 +1345,62 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="b">
+      <c r="B4" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1410,46 +1410,46 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="27">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1459,14 +1459,14 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="27">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1476,48 +1476,48 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="16" t="str">
         <f>$B10&amp;" "&amp;$B12</f>
         <v>dateGranValue prodlineId</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="17" t="str">
         <f>$B10</f>
         <v>dateGranValue</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="13" t="str">
         <f>trend!$B2</f>
         <v>搜索+推广点击消费按月查看报表</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1542,7 +1542,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
@@ -1578,7 +1578,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="24">
         <v>3344110</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/luopan-trend.xlsx
@@ -565,11 +565,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,11 +799,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86253952"/>
-        <c:axId val="86255488"/>
+        <c:axId val="76685312"/>
+        <c:axId val="76686848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86253952"/>
+        <c:axId val="76685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,14 +812,14 @@
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86255488"/>
+        <c:crossAx val="76686848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86255488"/>
+        <c:axId val="76686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +828,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86253952"/>
+        <c:crossAx val="76685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -846,7 +846,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000788" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000788" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1198,8 +1198,8 @@
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="5.125" customWidth="1"/>
     <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="6.25" customWidth="1"/>
@@ -1221,13 +1221,13 @@
       <c r="O1" s="4"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="24" t="str">
         <f>_input!$B2&amp;_input!$B3&amp;_input!$B4&amp;"报表"</f>
         <v>搜索+推广点击消费按月查看报表</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15">
@@ -1586,7 +1586,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>3344110</v>
       </c>
     </row>
